--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +59,7 @@
     </r>
   </si>
   <si>
-    <t>1 Скрол вниз до блока с фильтром выбора квартир</t>
+    <t>1 Скролл вниз до блока с фильтром выбора квартир</t>
   </si>
   <si>
     <t>1 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
@@ -77,13 +77,13 @@
     <t>3  Переход к блоку со скиском доступных квартир</t>
   </si>
   <si>
-    <t>4 Скрол вверх до блока с фильтром выбора квартир</t>
+    <t>4 Скролл вверх до блока с фильтром выбора квартир</t>
   </si>
   <si>
     <t>4 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
   </si>
   <si>
-    <t>5 Выбрать кнопку "Очичтить"</t>
+    <t>5 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>5 Сброс тфильтра. Система показывает количество доступных квартир</t>
@@ -101,13 +101,13 @@
     <t>7 Переход к блоку со списком доступных квартир</t>
   </si>
   <si>
-    <t>8 Скрол вверх до блока с фильтром выбора квартир</t>
+    <t>8 Скролл вверх до блока с фильтром выбора квартир</t>
   </si>
   <si>
     <t>8 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
   </si>
   <si>
-    <t>9 Выбрать кнопку "Очичтить"</t>
+    <t>9 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>9 Сброс тфильтра. Система показывает исходное количество доступных квартир</t>
@@ -132,7 +132,7 @@
     <t>2 Ввод валидного значений требуемой минимальной стоимости в поле "от". Например: 4 000 000</t>
   </si>
   <si>
-    <t>2 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>2 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>3 Переход к блоку со списком доступных квартир</t>
@@ -144,19 +144,19 @@
     <t>6 Ввод валидного значений требуемой максимальной стоимости в поле "до". Например: 4 000 000</t>
   </si>
   <si>
-    <t>6 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>6 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>10 Ввод валидного значений требуемой минимальной стоимости в поле "от". Например: 4 000 000</t>
   </si>
   <si>
-    <t>10 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>10 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>11 Ввод валидного значений требуемой максимальной стоимости в поле "до". Например: 4 500 000</t>
   </si>
   <si>
-    <t>11 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>11 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>12 Кликаем на кнопку "Показать ... предложений"</t>
@@ -165,13 +165,13 @@
     <t>12 Переход к блоку со списком доступных квартир</t>
   </si>
   <si>
-    <t>13 Скрол вверх до блока с фильтром выбора квартир</t>
+    <t>13 Скролл вверх до блока с фильтром выбора квартир</t>
   </si>
   <si>
     <t>13 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
   </si>
   <si>
-    <t>14 Выбрать кнопку "Очичтить"</t>
+    <t>14 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>14 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
@@ -314,13 +314,13 @@
     <t>11 Переход к блоку со списком доступных квартир</t>
   </si>
   <si>
-    <t>12 Скрол вверх до блока с фильтром выбора квартир</t>
+    <t>12 Скролл вверх до блока с фильтром выбора квартир</t>
   </si>
   <si>
     <t>12 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
   </si>
   <si>
-    <t>13 Выбрать кнопку "Очичтить"</t>
+    <t>13 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>13 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
@@ -348,19 +348,19 @@
     <t>3 Ввод валидного значений требуемой минимальной стоимости в поле "от". Например: 4 000 000</t>
   </si>
   <si>
-    <t>3 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>3 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>4 Ввод валидного значений требуемой максимальной стоимости в поле "до". Например: 4 500 000</t>
   </si>
   <si>
-    <t>4 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>4 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>5 Ввод валидного значений требуемой минимальной площади в поле "от". Например: 30</t>
   </si>
   <si>
-    <t>5 Отображение введенного знаения. Изменение количества доступных квартир</t>
+    <t>5 Отображение введенного значения. Изменение количества доступных квартир</t>
   </si>
   <si>
     <t>6 Ввод валидного значений требуемой максимальной площади в поле "до". Например: 55</t>
@@ -412,34 +412,85 @@
     <t>4 Кликаем на кнопку "Показать ... предложений"</t>
   </si>
   <si>
-    <t>5 Скрол вверх до блока с фильтром выбора квартир</t>
-  </si>
-  <si>
-    <t>6 Выбрать кнопку "Очичтить"</t>
+    <t>4 Переход к блоку со списком доступных квартир</t>
+  </si>
+  <si>
+    <t>5 Скролл вверх до блока с фильтром выбора квартир</t>
+  </si>
+  <si>
+    <t>5 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
+  </si>
+  <si>
+    <t>6 Выбрать кнопку "Очистить"</t>
+  </si>
+  <si>
+    <t>6 Сброс тфильтра. Система показывает исходное количество доступных квартир</t>
   </si>
   <si>
     <t>7 Клик по кнопке "Расширенная фильтрация"</t>
   </si>
   <si>
+    <t>7 Открытие модального окна с дополнительными характеристиками квартиры</t>
+  </si>
+  <si>
     <t>8 Ввод валидного значений требуемого максимального этажа в поле "до". Например: 4 000 000</t>
   </si>
   <si>
+    <t>8 Отображение введенного значения. Изменение количества доступных квартир</t>
+  </si>
+  <si>
     <t>9 Кликаем на кнопку "Показать ... предложений"</t>
   </si>
   <si>
-    <t>10 Скрол вверх до блока с фильтром выбора квартир</t>
-  </si>
-  <si>
-    <t>11 Выбрать кнопку "Очичтить"</t>
+    <t>9 Переход к блоку со списком доступных квартир</t>
+  </si>
+  <si>
+    <t>10 Скролл вверх до блока с фильтром выбора квартир</t>
+  </si>
+  <si>
+    <t>10 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
+  </si>
+  <si>
+    <t>11 Выбрать кнопку "Очистить"</t>
+  </si>
+  <si>
+    <t>11 Сброс тфильтра. Система показывает исходное количество доступных квартир</t>
   </si>
   <si>
     <t>12 Клик по кнопке "Расширенная фильтрация"</t>
   </si>
   <si>
+    <t>12 Открытие модального окна с дополнительными характеристиками квартиры</t>
+  </si>
+  <si>
     <t>13 Ввод валидного значений требуемого минимального этажа в поле "от". Например: 14</t>
   </si>
   <si>
-    <t>11 Ввод валидного значений требуемого максимального этажа в поле "до". Например: 15</t>
+    <t>13 Отображение введенного значения. Изменение количества доступных квартир</t>
+  </si>
+  <si>
+    <t>14 Ввод валидного значений требуемого максимального этажа в поле "до". Например: 15</t>
+  </si>
+  <si>
+    <t>14 Отображение введенного значения. Изменение количества доступных квартир</t>
+  </si>
+  <si>
+    <t>15 Кликаем на кнопку "Показать ... предложений"</t>
+  </si>
+  <si>
+    <t>15 Переход к блоку со списком доступных квартир</t>
+  </si>
+  <si>
+    <t>16 Скролл вверх до блока с фильтром выбора квартир</t>
+  </si>
+  <si>
+    <t>16 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
+  </si>
+  <si>
+    <t>17 Выбрать кнопку "Очистить"</t>
+  </si>
+  <si>
+    <t>17 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
   </si>
   <si>
     <t>Расширенная фильтрация квартир по площади кухни на странице Новостройки не авторизированного пользователя</t>
@@ -467,7 +518,7 @@
     <t>13 Ввод валидного значений требуемой минимальной площади кухни в поле "от". Например: 4</t>
   </si>
   <si>
-    <t>11 Ввод валидного значений требуемой максимальноой площади кухни в поле "до". Например: 10</t>
+    <t>14 Ввод валидного значений требуемой максимальноой площади кухни в поле "до". Например: 10</t>
   </si>
   <si>
     <t>Расширенная фильтрация квартир по выпадающему списку на странице Новостройки не авторизированного пользователя</t>
@@ -492,12 +543,6 @@
     <t>3 Отображение количества выбранных пунктов. Изменение количества доступных квартир</t>
   </si>
   <si>
-    <t>4 Переход к блоку со списком доступных квартир</t>
-  </si>
-  <si>
-    <t>5 Отображение фильтра с для выбора квартиры с указание количества доступных квартир</t>
-  </si>
-  <si>
     <t>6 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
   </si>
   <si>
@@ -827,7 +872,7 @@
     <t>2 Отображение  в поле введенного значения</t>
   </si>
   <si>
-    <t>3 Выбрать кнопку "Очичтить"</t>
+    <t>3 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>3 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
@@ -1125,7 +1170,7 @@
     <t>3 Отображение в поле введенного значения</t>
   </si>
   <si>
-    <t>4 Выбрать кнопку "Очичтить"</t>
+    <t>4 Выбрать кнопку "Очистить"</t>
   </si>
   <si>
     <t>4 Сброс фильтра. Система показывает исходное количество доступных квартир</t>
@@ -4004,7 +4049,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
@@ -4038,7 +4083,7 @@
         <v>101</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
@@ -4069,10 +4114,10 @@
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
@@ -4103,10 +4148,10 @@
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
@@ -4137,10 +4182,10 @@
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
@@ -4171,10 +4216,10 @@
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -4205,10 +4250,10 @@
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
@@ -4239,10 +4284,10 @@
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
@@ -4273,10 +4318,10 @@
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -4307,10 +4352,10 @@
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
@@ -4341,10 +4386,10 @@
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="25" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
@@ -4375,10 +4420,10 @@
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="25" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -4409,10 +4454,10 @@
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="25" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
@@ -4443,10 +4488,10 @@
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="16" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
@@ -4477,10 +4522,10 @@
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="16" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
@@ -4509,14 +4554,14 @@
         <v>10.0</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>11</v>
@@ -4587,10 +4632,10 @@
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="25" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -4624,7 +4669,7 @@
         <v>101</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
@@ -4655,10 +4700,10 @@
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
@@ -4689,10 +4734,10 @@
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -4723,10 +4768,10 @@
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
@@ -4757,10 +4802,10 @@
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
@@ -4791,10 +4836,10 @@
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
@@ -4825,10 +4870,10 @@
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
@@ -4859,10 +4904,10 @@
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
@@ -4893,10 +4938,10 @@
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
@@ -4927,10 +4972,10 @@
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="25" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
@@ -4961,10 +5006,10 @@
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
@@ -4995,10 +5040,10 @@
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="25" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
@@ -5029,10 +5074,10 @@
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="16" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
@@ -5063,10 +5108,10 @@
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="16" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
@@ -5095,14 +5140,14 @@
         <v>11.0</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>11</v>
@@ -5173,10 +5218,10 @@
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="30" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
@@ -5210,7 +5255,7 @@
         <v>101</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
@@ -5241,10 +5286,10 @@
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
@@ -5275,10 +5320,10 @@
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -5304,7 +5349,7 @@
     </row>
     <row r="121">
       <c r="A121" s="31" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5339,14 +5384,14 @@
         <v>12.0</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>11</v>
@@ -5383,10 +5428,10 @@
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="25" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
@@ -5415,14 +5460,14 @@
         <v>13.0</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>11</v>
@@ -5459,10 +5504,10 @@
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="25" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
@@ -5491,14 +5536,14 @@
         <v>14.0</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>11</v>
@@ -5535,10 +5580,10 @@
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="25" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
@@ -5567,14 +5612,14 @@
         <v>15.0</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>11</v>
@@ -5611,10 +5656,10 @@
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="25" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
@@ -5643,14 +5688,14 @@
         <v>16.0</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>11</v>
@@ -5687,10 +5732,10 @@
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="25" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
@@ -5719,14 +5764,14 @@
         <v>17.0</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>11</v>
@@ -5763,10 +5808,10 @@
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G133" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
@@ -5795,14 +5840,14 @@
         <v>18.0</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F134" s="16" t="s">
         <v>11</v>
@@ -5839,10 +5884,10 @@
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
@@ -5871,14 +5916,14 @@
         <v>19.0</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>11</v>
@@ -5915,10 +5960,10 @@
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
       <c r="F137" s="25" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
@@ -5947,14 +5992,14 @@
         <v>20.0</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>11</v>
@@ -6025,10 +6070,10 @@
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="25" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
@@ -6057,14 +6102,14 @@
         <v>21.0</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>11</v>
@@ -6135,10 +6180,10 @@
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H143" s="26"/>
       <c r="I143" s="26"/>
@@ -6167,14 +6212,14 @@
         <v>22.0</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>11</v>
@@ -6245,10 +6290,10 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="25" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H146" s="26"/>
       <c r="I146" s="26"/>
@@ -6277,14 +6322,14 @@
         <v>23.0</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>11</v>
@@ -6355,10 +6400,10 @@
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="25" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
@@ -6387,14 +6432,14 @@
         <v>24.0</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>11</v>
@@ -6465,10 +6510,10 @@
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="25" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
@@ -6497,14 +6542,14 @@
         <v>25.0</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F153" s="16" t="s">
         <v>11</v>
@@ -6575,10 +6620,10 @@
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H155" s="26"/>
       <c r="I155" s="26"/>
@@ -6607,14 +6652,14 @@
         <v>26.0</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>11</v>
@@ -6685,10 +6730,10 @@
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="25" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
@@ -6717,14 +6762,14 @@
         <v>27.0</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F159" s="16" t="s">
         <v>11</v>
@@ -6795,10 +6840,10 @@
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
@@ -6854,7 +6899,7 @@
     </row>
     <row r="163">
       <c r="A163" s="37" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B163" s="38"/>
       <c r="C163" s="38"/>
@@ -6889,14 +6934,14 @@
         <v>28.0</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>11</v>
@@ -6933,10 +6978,10 @@
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="25" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H165" s="26"/>
       <c r="I165" s="26"/>
@@ -6967,10 +7012,10 @@
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
@@ -6999,14 +7044,14 @@
         <v>29.0</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>11</v>
@@ -7043,10 +7088,10 @@
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="25" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
@@ -7077,10 +7122,10 @@
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
@@ -7109,14 +7154,14 @@
         <v>30.0</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F170" s="16" t="s">
         <v>11</v>
@@ -7153,10 +7198,10 @@
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="25" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
@@ -7187,10 +7232,10 @@
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H172" s="26"/>
       <c r="I172" s="26"/>
@@ -7219,14 +7264,14 @@
         <v>31.0</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F173" s="16" t="s">
         <v>11</v>
@@ -7263,10 +7308,10 @@
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="25" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
@@ -7297,10 +7342,10 @@
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H175" s="26"/>
       <c r="I175" s="26"/>
@@ -7329,14 +7374,14 @@
         <v>32.0</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F176" s="16" t="s">
         <v>11</v>
@@ -7373,10 +7418,10 @@
       <c r="D177" s="17"/>
       <c r="E177" s="17"/>
       <c r="F177" s="25" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H177" s="26"/>
       <c r="I177" s="26"/>
@@ -7407,10 +7452,10 @@
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
@@ -7439,14 +7484,14 @@
         <v>33.0</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F179" s="16" t="s">
         <v>11</v>
@@ -7483,10 +7528,10 @@
       <c r="D180" s="17"/>
       <c r="E180" s="17"/>
       <c r="F180" s="25" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
@@ -7517,10 +7562,10 @@
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
@@ -7549,14 +7594,14 @@
         <v>34.0</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>11</v>
@@ -7593,10 +7638,10 @@
       <c r="D183" s="17"/>
       <c r="E183" s="17"/>
       <c r="F183" s="25" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H183" s="26"/>
       <c r="I183" s="26"/>
@@ -7627,10 +7672,10 @@
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H184" s="26"/>
       <c r="I184" s="26"/>
@@ -7659,14 +7704,14 @@
         <v>35.0</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>11</v>
@@ -7703,10 +7748,10 @@
       <c r="D186" s="17"/>
       <c r="E186" s="17"/>
       <c r="F186" s="25" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
@@ -7737,10 +7782,10 @@
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
@@ -7769,14 +7814,14 @@
         <v>36.0</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F188" s="16" t="s">
         <v>11</v>
@@ -7813,10 +7858,10 @@
       <c r="D189" s="17"/>
       <c r="E189" s="17"/>
       <c r="F189" s="25" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
@@ -7847,10 +7892,10 @@
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
@@ -7879,14 +7924,14 @@
         <v>37.0</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F191" s="16" t="s">
         <v>11</v>
@@ -7923,10 +7968,10 @@
       <c r="D192" s="17"/>
       <c r="E192" s="17"/>
       <c r="F192" s="25" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193">
@@ -7936,10 +7981,10 @@
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194">
@@ -7947,14 +7992,14 @@
         <v>38.0</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F194" s="16" t="s">
         <v>11</v>
@@ -7970,10 +8015,10 @@
       <c r="D195" s="17"/>
       <c r="E195" s="17"/>
       <c r="F195" s="25" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196">
@@ -7983,10 +8028,10 @@
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197">
@@ -7994,14 +8039,14 @@
         <v>39.0</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F197" s="16" t="s">
         <v>11</v>
@@ -8017,10 +8062,10 @@
       <c r="D198" s="17"/>
       <c r="E198" s="17"/>
       <c r="F198" s="25" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199">
@@ -8030,10 +8075,10 @@
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
       <c r="F199" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200">
@@ -8041,14 +8086,14 @@
         <v>40.0</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E200" s="24" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F200" s="16" t="s">
         <v>11</v>
@@ -8064,10 +8109,10 @@
       <c r="D201" s="17"/>
       <c r="E201" s="17"/>
       <c r="F201" s="25" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202">
@@ -8077,10 +8122,10 @@
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203">
@@ -8088,14 +8133,14 @@
         <v>41.0</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E203" s="24" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F203" s="16" t="s">
         <v>11</v>
@@ -8111,10 +8156,10 @@
       <c r="D204" s="17"/>
       <c r="E204" s="17"/>
       <c r="F204" s="25" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205">
@@ -8124,10 +8169,10 @@
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206">
@@ -8135,14 +8180,14 @@
         <v>42.0</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F206" s="16" t="s">
         <v>11</v>
@@ -8158,10 +8203,10 @@
       <c r="D207" s="17"/>
       <c r="E207" s="17"/>
       <c r="F207" s="25" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208">
@@ -8171,10 +8216,10 @@
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209">
@@ -8182,14 +8227,14 @@
         <v>43.0</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F209" s="16" t="s">
         <v>11</v>
@@ -8205,10 +8250,10 @@
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="F210" s="25" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211">
@@ -8218,10 +8263,10 @@
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" s="16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="212">
@@ -8229,13 +8274,13 @@
         <v>44.0</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D212" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F212" s="16" t="s">
         <v>11</v>
@@ -8262,10 +8307,10 @@
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="F214" s="25" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215">
@@ -8274,10 +8319,10 @@
       <c r="D215" s="19"/>
       <c r="E215" s="19"/>
       <c r="F215" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216">
@@ -8285,14 +8330,14 @@
         <v>45.0</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C216" s="39"/>
       <c r="D216" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F216" s="16" t="s">
         <v>11</v>
@@ -8321,10 +8366,10 @@
       <c r="D218" s="17"/>
       <c r="E218" s="17"/>
       <c r="F218" s="25" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219">
@@ -8334,10 +8379,10 @@
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220">
@@ -8345,14 +8390,14 @@
         <v>46.0</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C220" s="39"/>
       <c r="D220" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E220" s="24" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F220" s="16" t="s">
         <v>11</v>
@@ -8381,10 +8426,10 @@
       <c r="D222" s="17"/>
       <c r="E222" s="17"/>
       <c r="F222" s="25" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G222" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223">
@@ -8394,10 +8439,10 @@
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224">
@@ -8405,14 +8450,14 @@
         <v>47.0</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C224" s="39"/>
       <c r="D224" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F224" s="16" t="s">
         <v>11</v>
@@ -8441,10 +8486,10 @@
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="F226" s="25" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G226" s="16" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227">
@@ -8454,10 +8499,10 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228">
@@ -8465,13 +8510,13 @@
         <v>48.0</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D228" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F228" s="16" t="s">
         <v>11</v>
@@ -8498,10 +8543,10 @@
       <c r="D230" s="17"/>
       <c r="E230" s="17"/>
       <c r="F230" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G230" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="G230" s="16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="231">
@@ -8510,10 +8555,10 @@
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232">
@@ -8521,14 +8566,14 @@
         <v>49.0</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C232" s="39"/>
       <c r="D232" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F232" s="16" t="s">
         <v>11</v>
@@ -8557,10 +8602,10 @@
       <c r="D234" s="17"/>
       <c r="E234" s="17"/>
       <c r="F234" s="25" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G234" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235">
@@ -8570,10 +8615,10 @@
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G235" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236">
@@ -8581,14 +8626,14 @@
         <v>50.0</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C236" s="39"/>
       <c r="D236" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E236" s="24" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>11</v>
@@ -8617,10 +8662,10 @@
       <c r="D238" s="17"/>
       <c r="E238" s="17"/>
       <c r="F238" s="25" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239">
@@ -8630,10 +8675,10 @@
       <c r="D239" s="19"/>
       <c r="E239" s="19"/>
       <c r="F239" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240">
@@ -8641,14 +8686,14 @@
         <v>51.0</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C240" s="39"/>
       <c r="D240" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F240" s="16" t="s">
         <v>11</v>
@@ -8677,10 +8722,10 @@
       <c r="D242" s="17"/>
       <c r="E242" s="17"/>
       <c r="F242" s="25" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243">
@@ -8690,10 +8735,10 @@
       <c r="D243" s="19"/>
       <c r="E243" s="19"/>
       <c r="F243" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244">
@@ -8701,13 +8746,13 @@
         <v>52.0</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F244" s="16" t="s">
         <v>11</v>
@@ -8734,10 +8779,10 @@
       <c r="D246" s="17"/>
       <c r="E246" s="17"/>
       <c r="F246" s="25" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247">
@@ -8746,10 +8791,10 @@
       <c r="D247" s="19"/>
       <c r="E247" s="19"/>
       <c r="F247" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248">
@@ -8757,14 +8802,14 @@
         <v>53.0</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C248" s="39"/>
       <c r="D248" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F248" s="16" t="s">
         <v>11</v>
@@ -8793,10 +8838,10 @@
       <c r="D250" s="17"/>
       <c r="E250" s="17"/>
       <c r="F250" s="25" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G250" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251">
@@ -8806,10 +8851,10 @@
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
       <c r="F251" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="252">
@@ -8817,14 +8862,14 @@
         <v>54.0</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C252" s="39"/>
       <c r="D252" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F252" s="16" t="s">
         <v>11</v>
@@ -8853,10 +8898,10 @@
       <c r="D254" s="17"/>
       <c r="E254" s="17"/>
       <c r="F254" s="25" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255">
@@ -8866,10 +8911,10 @@
       <c r="D255" s="19"/>
       <c r="E255" s="19"/>
       <c r="F255" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256">
@@ -8877,14 +8922,14 @@
         <v>55.0</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C256" s="39"/>
       <c r="D256" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F256" s="16" t="s">
         <v>11</v>
@@ -8913,10 +8958,10 @@
       <c r="D258" s="17"/>
       <c r="E258" s="17"/>
       <c r="F258" s="25" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G258" s="16" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259">
@@ -8926,10 +8971,10 @@
       <c r="D259" s="19"/>
       <c r="E259" s="19"/>
       <c r="F259" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G259" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260">
@@ -8937,13 +8982,13 @@
         <v>56.0</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D260" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E260" s="24" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F260" s="16" t="s">
         <v>11</v>
@@ -8970,10 +9015,10 @@
       <c r="D262" s="17"/>
       <c r="E262" s="17"/>
       <c r="F262" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G262" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="G262" s="16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="263">
@@ -8982,10 +9027,10 @@
       <c r="D263" s="19"/>
       <c r="E263" s="19"/>
       <c r="F263" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G263" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="264">
@@ -8993,14 +9038,14 @@
         <v>57.0</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C264" s="39"/>
       <c r="D264" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E264" s="24" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F264" s="16" t="s">
         <v>11</v>
@@ -9029,10 +9074,10 @@
       <c r="D266" s="17"/>
       <c r="E266" s="17"/>
       <c r="F266" s="25" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G266" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="267">
@@ -9042,10 +9087,10 @@
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G267" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268">
@@ -9053,14 +9098,14 @@
         <v>58.0</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C268" s="39"/>
       <c r="D268" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E268" s="24" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F268" s="16" t="s">
         <v>11</v>
@@ -9089,10 +9134,10 @@
       <c r="D270" s="17"/>
       <c r="E270" s="17"/>
       <c r="F270" s="25" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="271">
@@ -9102,10 +9147,10 @@
       <c r="D271" s="19"/>
       <c r="E271" s="19"/>
       <c r="F271" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G271" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="272">
@@ -9113,14 +9158,14 @@
         <v>59.0</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C272" s="39"/>
       <c r="D272" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E272" s="24" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F272" s="16" t="s">
         <v>11</v>
@@ -9149,10 +9194,10 @@
       <c r="D274" s="17"/>
       <c r="E274" s="17"/>
       <c r="F274" s="25" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G274" s="16" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="275">
@@ -9162,10 +9207,10 @@
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
       <c r="F275" s="16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="276">
